--- a/PlanningPrevisionnel_MotoCareCSharp.xlsx
+++ b/PlanningPrevisionnel_MotoCareCSharp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucaw\Desktop\TPI\TPI_MotoCare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4639DE7-3B24-40A0-B568-91119AAC0ED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D37199-C7EC-45E3-8D94-349E640C88DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="2745" windowWidth="19440" windowHeight="15000" xr2:uid="{768EBACB-D81C-4674-A208-90189CBFDE52}"/>
   </bookViews>
@@ -147,7 +147,7 @@
     <t>Planning Prévisionnel</t>
   </si>
   <si>
-    <t>Consultation des points d'intérêts</t>
+    <t>Consultation des points d'intérêts sur la carte</t>
   </si>
 </sst>
 </file>
@@ -1696,7 +1696,7 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/PlanningPrevisionnel_MotoCareCSharp.xlsx
+++ b/PlanningPrevisionnel_MotoCareCSharp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucaw\Desktop\TPI\TPI_MotoCare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D37199-C7EC-45E3-8D94-349E640C88DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368115DA-1433-4FE3-B6AE-4D86C639F6CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="2745" windowWidth="19440" windowHeight="15000" xr2:uid="{768EBACB-D81C-4674-A208-90189CBFDE52}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -78,24 +78,12 @@
     <t>PREPARATION</t>
   </si>
   <si>
-    <t>Lecture, analyse de l'énoncer</t>
-  </si>
-  <si>
     <t>Définition des tâches et du planning provisionnel</t>
   </si>
   <si>
     <t>Rédactions des scénarios de tests</t>
   </si>
   <si>
-    <t>BASE DE DONNÉE</t>
-  </si>
-  <si>
-    <t>Création de la base de donnée</t>
-  </si>
-  <si>
-    <t>Création des différentes tables et champs</t>
-  </si>
-  <si>
     <t>DESIGN [FRONT-END]</t>
   </si>
   <si>
@@ -148,6 +136,21 @@
   </si>
   <si>
     <t>Consultation des points d'intérêts sur la carte</t>
+  </si>
+  <si>
+    <t>Lecture, analyse de l'énoncé</t>
+  </si>
+  <si>
+    <t>Création de la base de données</t>
+  </si>
+  <si>
+    <t>BASE DE DONNÉES</t>
+  </si>
+  <si>
+    <t>Insertion de données dans la base</t>
+  </si>
+  <si>
+    <t>12e jour</t>
   </si>
 </sst>
 </file>
@@ -206,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -264,27 +267,39 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -294,8 +309,23 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -304,8 +334,102 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -315,73 +439,142 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="100">
+  <dxfs count="112">
     <dxf>
       <font>
         <b val="0"/>
@@ -405,6 +598,261 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -421,74 +869,95 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -503,64 +972,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -571,49 +982,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -624,49 +992,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -675,40 +1000,6 @@
           <color indexed="64"/>
         </right>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1344,27 +1635,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26F6B5E0-0608-43C8-9693-F05B8E417085}" name="Tableau4" displayName="Tableau4" ref="A4:A7" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26F6B5E0-0608-43C8-9693-F05B8E417085}" name="Tableau4" displayName="Tableau4" ref="A4:A7" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="31">
   <autoFilter ref="A4:A7" xr:uid="{D9B7718F-AC3C-4653-90AD-713D48E221B6}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{0277A94F-033A-4250-A2B2-3C7208A14B11}" name="PREPARATION" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{0277A94F-033A-4250-A2B2-3C7208A14B11}" name="PREPARATION" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{99C31701-D58E-4EEE-A10D-1F37439A79B2}" name="Tableau5" displayName="Tableau5" ref="A8:A10" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{99C31701-D58E-4EEE-A10D-1F37439A79B2}" name="Tableau5" displayName="Tableau5" ref="A8:A10" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="30">
   <autoFilter ref="A8:A10" xr:uid="{33097BD2-CAE7-41CA-A2DC-34B50191E63D}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{EC37CD86-CAA3-4892-93DA-0E359B0BFEA4}" name="BASE DE DONNÉE" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{EC37CD86-CAA3-4892-93DA-0E359B0BFEA4}" name="BASE DE DONNÉES" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{277FB490-2804-428D-899F-AF57492D01BC}" name="Tableau6" displayName="Tableau6" ref="A11:A14" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{277FB490-2804-428D-899F-AF57492D01BC}" name="Tableau6" displayName="Tableau6" ref="A11:A14" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="29">
   <autoFilter ref="A11:A14" xr:uid="{A91DB037-A8AB-4F24-AB60-4539D504BA6D}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{5A69061B-17B1-43F8-87FE-D82C61B2E171}" name="DESIGN [FRONT-END]" dataDxfId="8"/>
@@ -1374,20 +1665,20 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{54731CD4-5383-4859-B996-F5B7753C784D}" name="Tableau7" displayName="Tableau7" ref="A15:A22" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{54731CD4-5383-4859-B996-F5B7753C784D}" name="Tableau7" displayName="Tableau7" ref="A15:A22" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="28">
   <autoFilter ref="A15:A22" xr:uid="{C5F38C8B-7FCF-4D97-A20E-C0084A0369A0}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D909BEE1-01DC-4F00-B0BA-0B7328E3215F}" name="DEVELOPPEMENT [BACK-END]" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{D909BEE1-01DC-4F00-B0BA-0B7328E3215F}" name="DEVELOPPEMENT [BACK-END]" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6F50211F-B08A-403F-BF11-5CC74AB1F22F}" name="Tableau8" displayName="Tableau8" ref="A23:A27" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6F50211F-B08A-403F-BF11-5CC74AB1F22F}" name="Tableau8" displayName="Tableau8" ref="A23:A27" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="15">
   <autoFilter ref="A23:A27" xr:uid="{EF0FCB66-7593-4E13-9F22-D9CC5E89F288}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{602AC9CE-06E1-45DA-9748-ADA6BA70E1C9}" name="ADMINISTRATION" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{602AC9CE-06E1-45DA-9748-ADA6BA70E1C9}" name="ADMINISTRATION" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1693,809 +1984,872 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="54.20703125" customWidth="1"/>
-    <col min="2" max="23" width="6" customWidth="1"/>
+    <col min="2" max="25" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="26.1" thickBot="1" x14ac:dyDescent="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:25" ht="26.1" thickBot="1" x14ac:dyDescent="1">
+      <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="10"/>
+      <c r="T2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="10"/>
+      <c r="V2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="10"/>
+      <c r="X2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="11"/>
+    </row>
+    <row r="3" spans="1:25" s="3" customFormat="1" ht="33.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="16"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="21"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="21"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="26"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="29"/>
     </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="33"/>
-      <c r="T2" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="W2" s="33"/>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="26"/>
     </row>
-    <row r="3" spans="1:23" s="6" customFormat="1" ht="33.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>13</v>
-      </c>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="26"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="9"/>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="33"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="13"/>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="21"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="13"/>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="21"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="18"/>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="21"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="20"/>
+    <row r="15" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="29"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="18"/>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="26"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="18"/>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="26"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="9"/>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="26"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="13"/>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="21"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="13"/>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="21"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="13"/>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="21"/>
     </row>
-    <row r="15" spans="1:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="20"/>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="21"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="18"/>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="33"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="18"/>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="39"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="18"/>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="39"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="13"/>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="26"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="13"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="13"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="13"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="7" t="s">
+    <row r="27" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="9"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="16"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="16"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="18"/>
-    </row>
-    <row r="27" spans="1:23" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="31"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="X2:Y2"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -2510,359 +2864,411 @@
     <mergeCell ref="V2:W2"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:C23 E11:E22 G11:G22 I11:I22 K11:K22 M11:M22 O11:O22 Q11:Q22 S11:S22 U11:U22 W11:W22">
-    <cfRule type="cellIs" dxfId="99" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="92" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C23 E12:E22 G12:G22 I12:I22 K12:K22 M12:M22 O12:O22 Q12:Q22 S12:S22 U12:U22 W12:W22">
-    <cfRule type="cellIs" dxfId="98" priority="79" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="91" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C23 E11:E23 G11:G23 I11:I23 K11:K23 M11:M23 O11:O23 Q11:Q23 S11:S23 U11:U23 W11:W23">
-    <cfRule type="cellIs" dxfId="97" priority="76" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="77" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="78" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="88" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="89" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="90" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C6">
+    <cfRule type="cellIs" dxfId="106" priority="87" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C6">
+    <cfRule type="cellIs" dxfId="105" priority="86" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C6">
+    <cfRule type="cellIs" dxfId="104" priority="83" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="84" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="85" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E6">
+    <cfRule type="cellIs" dxfId="101" priority="80" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E6">
+    <cfRule type="cellIs" dxfId="100" priority="79" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E6">
+    <cfRule type="cellIs" dxfId="99" priority="76" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="77" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="78" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="96" priority="82" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="95" priority="81" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
     <cfRule type="cellIs" dxfId="94" priority="75" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C6">
+  <conditionalFormatting sqref="G23">
     <cfRule type="cellIs" dxfId="93" priority="74" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="92" priority="71" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G4:G6">
+    <cfRule type="cellIs" dxfId="92" priority="73" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G6">
     <cfRule type="cellIs" dxfId="91" priority="72" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="73" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E6">
-    <cfRule type="cellIs" dxfId="89" priority="68" operator="greaterThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G6">
+    <cfRule type="cellIs" dxfId="90" priority="69" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="70" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="71" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="cellIs" dxfId="87" priority="68" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E6">
-    <cfRule type="cellIs" dxfId="88" priority="67" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E6">
-    <cfRule type="cellIs" dxfId="87" priority="64" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="65" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="cellIs" dxfId="86" priority="67" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I6">
     <cfRule type="cellIs" dxfId="85" priority="66" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="84" priority="70" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="83" priority="69" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="I5:I6">
+    <cfRule type="cellIs" dxfId="84" priority="65" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I6">
+    <cfRule type="cellIs" dxfId="83" priority="62" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="82" priority="63" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" dxfId="81" priority="62" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G6">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="64" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
     <cfRule type="cellIs" dxfId="80" priority="61" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G6">
+  <conditionalFormatting sqref="K23">
     <cfRule type="cellIs" dxfId="79" priority="60" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G6">
-    <cfRule type="cellIs" dxfId="78" priority="57" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
+  <conditionalFormatting sqref="K4:K6">
+    <cfRule type="cellIs" dxfId="78" priority="59" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K6">
     <cfRule type="cellIs" dxfId="77" priority="58" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="59" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K6">
+    <cfRule type="cellIs" dxfId="76" priority="55" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="75" priority="56" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="74" priority="55" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I6">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="57" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23">
     <cfRule type="cellIs" dxfId="73" priority="54" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I6">
+  <conditionalFormatting sqref="M23">
     <cfRule type="cellIs" dxfId="72" priority="53" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I6">
-    <cfRule type="cellIs" dxfId="71" priority="50" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
+  <conditionalFormatting sqref="M4:M6">
+    <cfRule type="cellIs" dxfId="71" priority="52" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M6">
     <cfRule type="cellIs" dxfId="70" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="52" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M6">
+    <cfRule type="cellIs" dxfId="69" priority="48" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="68" priority="49" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="cellIs" dxfId="67" priority="48" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K6">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="50" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O23">
     <cfRule type="cellIs" dxfId="66" priority="47" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K6">
+  <conditionalFormatting sqref="O23">
     <cfRule type="cellIs" dxfId="65" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K6">
-    <cfRule type="cellIs" dxfId="64" priority="43" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
+  <conditionalFormatting sqref="O4:O6">
+    <cfRule type="cellIs" dxfId="64" priority="45" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O6">
     <cfRule type="cellIs" dxfId="63" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="45" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M23">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:O6">
+    <cfRule type="cellIs" dxfId="62" priority="41" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="61" priority="42" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M23">
-    <cfRule type="cellIs" dxfId="60" priority="41" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M6">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="43" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q23">
     <cfRule type="cellIs" dxfId="59" priority="40" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M6">
+  <conditionalFormatting sqref="Q23">
     <cfRule type="cellIs" dxfId="58" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M6">
-    <cfRule type="cellIs" dxfId="57" priority="36" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
+  <conditionalFormatting sqref="Q4:Q6">
+    <cfRule type="cellIs" dxfId="57" priority="38" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5:Q6">
     <cfRule type="cellIs" dxfId="56" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="38" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O23">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4:Q6">
+    <cfRule type="cellIs" dxfId="55" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="54" priority="35" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O23">
-    <cfRule type="cellIs" dxfId="53" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O6">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="36" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S23">
     <cfRule type="cellIs" dxfId="52" priority="33" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O6">
+  <conditionalFormatting sqref="S23">
     <cfRule type="cellIs" dxfId="51" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O6">
-    <cfRule type="cellIs" dxfId="50" priority="29" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
+  <conditionalFormatting sqref="S4:S6">
+    <cfRule type="cellIs" dxfId="50" priority="31" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5:S6">
     <cfRule type="cellIs" dxfId="49" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q23">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S4:S6">
+    <cfRule type="cellIs" dxfId="48" priority="27" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="47" priority="28" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q23">
-    <cfRule type="cellIs" dxfId="46" priority="27" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Q6">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="29" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U23">
     <cfRule type="cellIs" dxfId="45" priority="26" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q6">
+  <conditionalFormatting sqref="U23">
     <cfRule type="cellIs" dxfId="44" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Q6">
-    <cfRule type="cellIs" dxfId="43" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
+  <conditionalFormatting sqref="U4:U6">
+    <cfRule type="cellIs" dxfId="43" priority="24" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5:U6">
     <cfRule type="cellIs" dxfId="42" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="24" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S23">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4:U6">
+    <cfRule type="cellIs" dxfId="41" priority="20" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="40" priority="21" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S23">
-    <cfRule type="cellIs" dxfId="39" priority="20" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S4:S6">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W23">
     <cfRule type="cellIs" dxfId="38" priority="19" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S6">
+  <conditionalFormatting sqref="W23">
     <cfRule type="cellIs" dxfId="37" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S4:S6">
-    <cfRule type="cellIs" dxfId="36" priority="15" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
+  <conditionalFormatting sqref="W4:W6">
+    <cfRule type="cellIs" dxfId="36" priority="17" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W5:W6">
     <cfRule type="cellIs" dxfId="35" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="17" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U23">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4:W6">
+    <cfRule type="cellIs" dxfId="34" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="33" priority="14" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="15" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11:Y22">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U23">
-    <cfRule type="cellIs" dxfId="32" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4:U6">
-    <cfRule type="cellIs" dxfId="31" priority="12" operator="greaterThan">
+  <conditionalFormatting sqref="Y12:Y22">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11:Y23">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y23">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U6">
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4:U6">
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W23">
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="greaterThan">
+  <conditionalFormatting sqref="Y23">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:Y6">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W23">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W4:W6">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W5:W6">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W4:W6">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="Y5:Y6">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:Y6">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
